--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,154 +517,6 @@
         <v>168.1716754454099</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>delhi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>agra</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28.6517178</v>
-      </c>
-      <c r="D3" t="n">
-        <v>77.2219388</v>
-      </c>
-      <c r="E3" t="n">
-        <v>27.1752554</v>
-      </c>
-      <c r="F3" t="n">
-        <v>78.00981609999999</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>28 39m 6.18408s N, 77 13m 18.9797s E</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>27 10m 30.9194s N, 78 0m 35.338s E</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>181.0686100883329</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>indore indore</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>bhopal</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22.7203616</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75.8681996</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23.2584857</v>
-      </c>
-      <c r="F4" t="n">
-        <v>77.401989</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>22 43m 13.3018s N, 75 52m 5.51856s E</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>23 15m 30.5485s N, 77 24m 7.1604s E</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>168.1716754454099</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>indore</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>bhopal</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22.7203616</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75.8681996</v>
-      </c>
-      <c r="E5" t="n">
-        <v>23.2584857</v>
-      </c>
-      <c r="F5" t="n">
-        <v>77.401989</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>22 43m 13.3018s N, 75 52m 5.51856s E</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>23 15m 30.5485s N, 77 24m 7.1604s E</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>168.1716754454099</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>indore</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>bhopal</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22.7203616</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75.8681996</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.2584857</v>
-      </c>
-      <c r="F6" t="n">
-        <v>77.401989</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>22 43m 13.3018s N, 75 52m 5.51856s E</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>23 15m 30.5485s N, 77 24m 7.1604s E</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>168.1716754454099</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
